--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H2">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N2">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q2">
-        <v>13.45415352166844</v>
+        <v>0.5105436660196667</v>
       </c>
       <c r="R2">
-        <v>121.087381695016</v>
+        <v>4.594892994177</v>
       </c>
       <c r="S2">
-        <v>0.1360200404571655</v>
+        <v>0.009545956777284486</v>
       </c>
       <c r="T2">
-        <v>0.1360200404571655</v>
+        <v>0.009545956777284486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H3">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.688986</v>
       </c>
       <c r="O3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q3">
-        <v>11.92108878890844</v>
+        <v>0.9458339288517779</v>
       </c>
       <c r="R3">
-        <v>107.289799100176</v>
+        <v>8.512505359665999</v>
       </c>
       <c r="S3">
-        <v>0.1205209214202356</v>
+        <v>0.0176848532343959</v>
       </c>
       <c r="T3">
-        <v>0.1205209214202356</v>
+        <v>0.0176848532343959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H4">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q4">
-        <v>9.140113389800888</v>
+        <v>0.7251879010975556</v>
       </c>
       <c r="R4">
-        <v>82.26102050820799</v>
+        <v>6.526691109878</v>
       </c>
       <c r="S4">
-        <v>0.0924055601908743</v>
+        <v>0.01355929535519936</v>
       </c>
       <c r="T4">
-        <v>0.09240556019087431</v>
+        <v>0.01355929535519936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>16.440185</v>
       </c>
       <c r="I5">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J5">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N5">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q5">
-        <v>22.03642580068722</v>
+        <v>10.53946831973833</v>
       </c>
       <c r="R5">
-        <v>198.327832206185</v>
+        <v>94.855214877645</v>
       </c>
       <c r="S5">
-        <v>0.2227858872067557</v>
+        <v>0.1970630833992282</v>
       </c>
       <c r="T5">
-        <v>0.2227858872067557</v>
+        <v>0.1970630833992282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>16.440185</v>
       </c>
       <c r="I6">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J6">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.688986</v>
       </c>
       <c r="O6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q6">
         <v>19.52543414471222</v>
@@ -818,10 +818,10 @@
         <v>175.72890730241</v>
       </c>
       <c r="S6">
-        <v>0.1974000324903477</v>
+        <v>0.3650793513046103</v>
       </c>
       <c r="T6">
-        <v>0.1974000324903478</v>
+        <v>0.3650793513046103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>16.440185</v>
       </c>
       <c r="I7">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J7">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q7">
         <v>14.97050187511444</v>
@@ -880,10 +880,10 @@
         <v>134.73451687603</v>
       </c>
       <c r="S7">
-        <v>0.1513501587028583</v>
+        <v>0.2799129111682954</v>
       </c>
       <c r="T7">
-        <v>0.1513501587028583</v>
+        <v>0.2799129111682954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H8">
         <v>2.287311</v>
       </c>
       <c r="I8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N8">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q8">
-        <v>3.065911918545667</v>
+        <v>1.466348573443</v>
       </c>
       <c r="R8">
-        <v>27.593207266911</v>
+        <v>13.197137160987</v>
       </c>
       <c r="S8">
-        <v>0.03099603869742169</v>
+        <v>0.02741724368387412</v>
       </c>
       <c r="T8">
-        <v>0.03099603869742169</v>
+        <v>0.02741724368387412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H9">
         <v>2.287311</v>
       </c>
       <c r="I9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>10.688986</v>
       </c>
       <c r="O9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q9">
-        <v>2.716559472960667</v>
+        <v>2.716559472960666</v>
       </c>
       <c r="R9">
         <v>24.449035256646</v>
       </c>
       <c r="S9">
-        <v>0.02746412316622531</v>
+        <v>0.0507932250222184</v>
       </c>
       <c r="T9">
-        <v>0.02746412316622531</v>
+        <v>0.0507932250222184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H10">
         <v>2.287311</v>
       </c>
       <c r="I10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q10">
-        <v>2.082835054135334</v>
+        <v>2.082835054135333</v>
       </c>
       <c r="R10">
         <v>18.745515487218</v>
       </c>
       <c r="S10">
-        <v>0.02105723766811587</v>
+        <v>0.03894408005489384</v>
       </c>
       <c r="T10">
-        <v>0.02105723766811587</v>
+        <v>0.03894408005489384</v>
       </c>
     </row>
   </sheetData>
